--- a/XLSX/HeroTable.xlsx
+++ b/XLSX/HeroTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B653D-16DE-4948-87A3-203BE55D0E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B84208-7C84-4D8B-B5BE-B602EA0EED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>;스플레쉬 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset&lt;UTexturte2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_36.T_icon_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;영웅 초상화 아이콘 리소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,9 +605,10 @@
     <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -634,8 +651,11 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -678,8 +698,11 @@
       <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -722,8 +745,11 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -766,8 +792,11 @@
       <c r="N4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -810,8 +839,11 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -854,8 +886,11 @@
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -898,8 +933,11 @@
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -945,8 +983,11 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -992,8 +1033,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1039,8 +1083,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1086,8 +1133,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1133,8 +1183,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1177,8 +1230,11 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1221,8 +1277,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1265,8 +1324,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1309,8 +1371,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1353,8 +1418,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1400,8 +1468,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1447,8 +1518,11 @@
       <c r="N19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1494,8 +1568,11 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1541,8 +1618,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1587,6 +1667,9 @@
       </c>
       <c r="N22">
         <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1720,6 +1803,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XLSX/HeroTable.xlsx
+++ b/XLSX/HeroTable.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B84208-7C84-4D8B-B5BE-B602EA0EED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F7903D-4F20-4036-921E-C924FA7E815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
-    <sheet name="HeroDesc" sheetId="2" r:id="rId2"/>
+    <sheet name="!HeroSkill" sheetId="3" r:id="rId2"/>
+    <sheet name="HeroDesc" sheetId="2" r:id="rId3"/>
+    <sheet name="HeroSkillDesc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="53">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;영웅 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;공격 사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +179,66 @@
   </si>
   <si>
     <t>;영웅 초상화 아이콘 리소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 공격유형의 영웅으로, 높은 체력과 공격력을 가지고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 공격 유형의 영웅으로, 빠른 공격 속도를 가지고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;BuffType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;영웅 이름 로컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;영웅 설명 로컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시적으로 공격 속도를 대폭 상승시켜주는 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시적으로 최대 체력을 증가시켜주는 강력한 벞흐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -596,21 +654,22 @@
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -625,84 +684,90 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -716,40 +781,43 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -763,40 +831,43 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -810,40 +881,43 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -857,40 +931,43 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
       </c>
       <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>125</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>125</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -904,40 +981,43 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="I7">
-        <v>150</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -951,43 +1031,46 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(F7*1.1,0)</f>
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H12" si="0">ROUND(G7*1.1,0)</f>
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <f>ROUND(G7*1.1,0)</f>
-        <v>33</v>
-      </c>
       <c r="H8">
-        <f t="shared" ref="H8:I12" si="0">ROUND(H7*1.1,0)</f>
-        <v>28</v>
-      </c>
-      <c r="I8">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
       <c r="J8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1001,43 +1084,46 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="1">ROUND(F8*1.1,0)</f>
+        <v>36</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G12" si="1">ROUND(G8*1.1,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1051,43 +1137,46 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1101,43 +1190,46 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1151,43 +1243,46 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1201,40 +1296,43 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1248,40 +1346,43 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I14">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>5</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1295,40 +1396,43 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I15">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1342,40 +1446,43 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="I16">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1389,40 +1496,43 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
       </c>
       <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>90</v>
-      </c>
       <c r="J17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1436,43 +1546,46 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F22" si="2">ROUND(F17*1.1,0)</f>
+        <v>17</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G22" si="2">ROUND(G17*1.1,0)</f>
-        <v>17</v>
+        <f t="shared" ref="G18:G22" si="3">ROUND(G17*1.1,0)</f>
+        <v>11</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H22" si="3">ROUND(H17*1.1,0)</f>
-        <v>11</v>
+        <f t="shared" ref="H18:H22" si="4">ROUND(H17*1.1,0)</f>
+        <v>99</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I22" si="4">ROUND(I17*1.1,0)</f>
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1486,43 +1599,46 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
       <c r="J19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1536,43 +1652,46 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20">
+        <v>28</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
       <c r="J20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1586,43 +1705,46 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H21">
+      <c r="G21">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I21">
+      <c r="H21">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
       <c r="J21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1636,40 +1758,43 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
+        <v>28</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
       <c r="J22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1679,11 +1804,1100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB130B4-DBBE-42C7-A6EE-FF1218C4FF71}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10001</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10001</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>125</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10001</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10001</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(F7*1.1,0)</f>
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H12" si="0">ROUND(G7*1.1,0)</f>
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10001</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F12" si="1">ROUND(F8*1.1,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10001</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10001</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10001</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11001</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>11001</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11001</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>11001</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>11001</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11001</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:H22" si="2">ROUND(F17*1.1,0)</f>
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>11001</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>11001</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>11001</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>11001</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40697F6B-D6AA-4A3C-BC30-5A6A92BE5A91}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1733,86 +2947,107 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
+      <c r="A11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
+      <c r="A12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F1C188-BBE1-42EB-AC86-267E2716671E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XLSX/HeroTable.xlsx
+++ b/XLSX/HeroTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F7903D-4F20-4036-921E-C924FA7E815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F40229-663B-41FB-B9B9-E89E7985F210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="29655" yWindow="4335" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="53">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>enum&lt;AttackType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asset&lt;UTexturte2D&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Game/Asset/UI/Texture/Icon/T_icon_36.T_icon_36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fstring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접 공격유형의 영웅으로, 높은 체력과 공격력을 가지고있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum&lt;BuffType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HeroName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +223,22 @@
   </si>
   <si>
     <t>일시적으로 최대 체력을 증가시켜주는 강력한 벞흐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;AttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexturte2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,14 +312,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,6 +324,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,109 +668,109 @@
     <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.625" customWidth="1"/>
     <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="M1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
+      <c r="N2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -808,13 +814,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -858,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -908,13 +914,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -958,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1008,13 +1014,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1061,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1114,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1167,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1220,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1273,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1323,13 +1329,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1373,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
         <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1423,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
         <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1473,13 +1479,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
         <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1523,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
         <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1576,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
         <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1629,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
         <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1682,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
         <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1735,13 +1741,13 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1788,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
         <v>26</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1807,113 +1813,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB130B4-DBBE-42C7-A6EE-FF1218C4FF71}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.625" customWidth="1"/>
+    <col min="16" max="16" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="M1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
+      <c r="N2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1954,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -2001,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -2048,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -2142,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2192,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2242,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2292,13 +2298,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2342,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2392,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2439,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2486,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2533,13 +2539,13 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2580,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2627,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2677,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2727,13 +2733,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2777,13 +2783,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2827,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2877,13 +2883,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +2915,7 @@
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2917,7 +2923,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2925,7 +2931,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2933,7 +2939,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2941,7 +2947,7 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2949,7 +2955,7 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2957,7 +2963,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2965,7 +2971,7 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2973,7 +2979,7 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2981,15 +2987,15 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2997,40 +3003,40 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/HeroTable.xlsx
+++ b/XLSX/HeroTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F40229-663B-41FB-B9B9-E89E7985F210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93721CC1-BCBD-44DC-BCF9-05E6452183B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="4335" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -226,19 +226,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum&lt;AttackType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset&lt;UTexturte2D&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;EAttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexture2D&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +651,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>41</v>
@@ -737,7 +737,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>29</v>
@@ -764,13 +764,13 @@
         <v>29</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB130B4-DBBE-42C7-A6EE-FF1218C4FF71}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>44</v>
@@ -1913,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/XLSX/HeroTable.xlsx
+++ b/XLSX/HeroTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93721CC1-BCBD-44DC-BCF9-05E6452183B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817AD0E-3654-4B63-8A07-3D6297D9B64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Hero" sheetId="1" r:id="rId1"/>
@@ -139,14 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NomalAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
   </si>
   <si>
@@ -239,6 +231,14 @@
   </si>
   <si>
     <t>Asset&lt;UTexture2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -711,66 +711,66 @@
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -814,13 +814,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -914,13 +914,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -964,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -1014,13 +1014,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <f>ROUND(F7*1.1,0)</f>
@@ -1067,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F12" si="1">ROUND(F8*1.1,0)</f>
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -1173,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -1226,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -1279,13 +1279,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1329,13 +1329,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1379,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
         <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -1429,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
         <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>12</v>
@@ -1479,13 +1479,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
         <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1529,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
         <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:F22" si="2">ROUND(F17*1.1,0)</f>
@@ -1582,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
         <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -1635,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
         <v>26</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s">
         <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -1741,13 +1741,13 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
@@ -1794,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
         <v>26</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB130B4-DBBE-42C7-A6EE-FF1218C4FF71}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1826,7 +1826,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1862,64 +1862,64 @@
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1960,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -2007,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -2054,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -2101,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -2148,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2198,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2248,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2298,13 +2298,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2348,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2445,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2539,13 +2539,13 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2633,13 +2633,13 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2733,13 +2733,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2833,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3009,18 +3009,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,15 +3028,15 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
